--- a/exportorv2/example/Info.xlsx
+++ b/exportorv2/example/Info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/exportorv2/example/Info.xlsx
+++ b/exportorv2/example/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,6 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -158,6 +159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -222,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>唯一ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -375,12 +377,16 @@
     <t>孙悟空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>BoolChecker</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,19 +448,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -645,6 +638,122 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>表不会被导出</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="1885950"/>
+          <a:ext cx="2552700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>本表单比起</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Info</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>少了一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>BoolChecker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>字段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>但是依然可以导出</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>表单导出</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -920,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -940,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -988,8 +1097,8 @@
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
+      <c r="C5" s="2">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -1007,8 +1116,8 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="b">
-        <v>0</v>
+      <c r="C7" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1032,56 +1141,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1089,13 +1190,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -1103,18 +1201,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>70</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -1126,7 +1224,8 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
